--- a/sample.xlsx
+++ b/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1489">
   <si>
     <t>country</t>
   </si>
@@ -4844,7 +4844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4852,10 +4852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J391"/>
+  <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H378" workbookViewId="0">
-      <selection activeCell="I369" sqref="I369"/>
+    <sheetView tabSelected="1" topLeftCell="H337" workbookViewId="0">
+      <selection activeCell="I347" sqref="I347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -12243,7 +12243,7 @@
         <v>1392</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>1320</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="348" spans="2:9">
@@ -12251,7 +12251,7 @@
         <v>1392</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="349" spans="2:9">
@@ -12259,15 +12259,15 @@
         <v>1392</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="350" spans="2:9">
       <c r="B350" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I350" s="1" t="s">
-        <v>1447</v>
+        <v>1393</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="351" spans="2:9">
@@ -12275,7 +12275,7 @@
         <v>1393</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="352" spans="2:9">
@@ -12283,15 +12283,15 @@
         <v>1393</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="353" spans="2:9">
       <c r="B353" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I353" s="3" t="s">
-        <v>1450</v>
+        <v>1394</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="354" spans="2:9">
@@ -12299,7 +12299,7 @@
         <v>1394</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="355" spans="2:9">
@@ -12307,7 +12307,7 @@
         <v>1394</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="356" spans="2:9">
@@ -12315,7 +12315,7 @@
         <v>1394</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="357" spans="2:9">
@@ -12323,7 +12323,7 @@
         <v>1394</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="358" spans="2:9">
@@ -12331,7 +12331,7 @@
         <v>1394</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="359" spans="2:9">
@@ -12339,7 +12339,7 @@
         <v>1394</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="360" spans="2:9">
@@ -12347,7 +12347,7 @@
         <v>1394</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="361" spans="2:9">
@@ -12355,15 +12355,15 @@
         <v>1394</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="362" spans="2:9">
       <c r="B362" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="363" spans="2:9">
@@ -12371,7 +12371,7 @@
         <v>1395</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="364" spans="2:9">
@@ -12379,7 +12379,7 @@
         <v>1395</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="365" spans="2:9">
@@ -12387,7 +12387,7 @@
         <v>1395</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="366" spans="2:9">
@@ -12395,7 +12395,7 @@
         <v>1395</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="367" spans="2:9">
@@ -12403,7 +12403,7 @@
         <v>1395</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="368" spans="2:9">
@@ -12411,7 +12411,7 @@
         <v>1395</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="369" spans="2:9">
@@ -12419,15 +12419,15 @@
         <v>1395</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="370" spans="2:9">
       <c r="B370" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="371" spans="2:9">
@@ -12435,7 +12435,7 @@
         <v>1396</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="372" spans="2:9">
@@ -12443,7 +12443,7 @@
         <v>1396</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="373" spans="2:9">
@@ -12451,7 +12451,7 @@
         <v>1396</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="374" spans="2:9">
@@ -12459,7 +12459,7 @@
         <v>1396</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="375" spans="2:9">
@@ -12467,7 +12467,7 @@
         <v>1396</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="376" spans="2:9">
@@ -12475,7 +12475,7 @@
         <v>1396</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="377" spans="2:9">
@@ -12483,7 +12483,7 @@
         <v>1396</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="378" spans="2:9">
@@ -12491,15 +12491,15 @@
         <v>1396</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="379" spans="2:9">
       <c r="B379" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="380" spans="2:9">
@@ -12507,7 +12507,7 @@
         <v>1398</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="381" spans="2:9">
@@ -12515,7 +12515,7 @@
         <v>1398</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="382" spans="2:9">
@@ -12523,7 +12523,7 @@
         <v>1398</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="383" spans="2:9">
@@ -12531,7 +12531,7 @@
         <v>1398</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="384" spans="2:9">
@@ -12539,15 +12539,15 @@
         <v>1398</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="385" spans="2:9">
       <c r="B385" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="386" spans="2:9">
@@ -12555,7 +12555,7 @@
         <v>1399</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="387" spans="2:9">
@@ -12563,7 +12563,7 @@
         <v>1399</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="388" spans="2:9">
@@ -12571,7 +12571,7 @@
         <v>1399</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="389" spans="2:9">
@@ -12579,7 +12579,7 @@
         <v>1399</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="390" spans="2:9">
@@ -12587,14 +12587,6 @@
         <v>1399</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="391" spans="2:9">
-      <c r="B391" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="I391" s="1" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -12611,9 +12603,9 @@
     <hyperlink ref="I250" r:id="rId8"/>
     <hyperlink ref="I251" r:id="rId9"/>
     <hyperlink ref="I252" r:id="rId10"/>
-    <hyperlink ref="I351" r:id="rId11"/>
-    <hyperlink ref="I352" r:id="rId12"/>
-    <hyperlink ref="I353" r:id="rId13"/>
+    <hyperlink ref="I350" r:id="rId11"/>
+    <hyperlink ref="I351" r:id="rId12"/>
+    <hyperlink ref="I352" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
